--- a/my_docs/oct,2020.xlsx
+++ b/my_docs/oct,2020.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -30,6 +29,9 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>java-upto OOP</t>
   </si>
 </sst>
 </file>
@@ -405,7 +407,7 @@
   <dimension ref="C8:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,7 +445,9 @@
       <c r="C10" s="2">
         <v>44126</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">

--- a/my_docs/oct,2020.xlsx
+++ b/my_docs/oct,2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>java-upto OOP</t>
+  </si>
+  <si>
+    <t>object cloning, getter-setter</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <dimension ref="C8:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,7 +418,7 @@
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
     <col min="5" max="5" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -454,7 +457,9 @@
       <c r="C11" s="2">
         <v>44127</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
